--- a/produtosAchados.xlsx
+++ b/produtosAchados.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Produto</t>
+          <t>Nome</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -451,14 +451,14 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Url</t>
+          <t>URL</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>iphone/12/64gb</t>
+          <t>jbl/boombox/3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,51 +468,63 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R$ 2.399,00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>R$ 2.069,00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/caixa-de-som-bluetooth/caixa-de-som-bluetooth-jbl-boombox-3?_lc=88&amp;searchterm=jbl%2Fboombox%2F3</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>iphone/12/64gb</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Menor preço via Extra</t>
+          <t>Menor preço via Inpower Eletrônicos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R$ 2.411,10</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>R$ 133,32</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-gamer-optico-usb-g203-logitech?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>iphone/12/64gb</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Menor preço via Mercado Livre</t>
+          <t>Menor preço via Amazon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R$ 2.499,00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>R$ 699,99</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-gamer-optico-sem-fio-pro-x-superlight-logitech?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>iphone/12/64gb</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -522,51 +534,63 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R$ 3.599,00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>R$ 158,04</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-optico-gamer-usb-deathadder-essential-razer?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>iphone/12/64gb</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Menor preço via Extra</t>
+          <t>Menor preço via KaBuM!</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>R$ 7.039,00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>R$ 104,99</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-profissional-usb-cobra-redragon?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>placa/de/video/rtx/3060</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Menor preço via Amazon</t>
+          <t>Menor preço via KaBuM!</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>R$ 1.957,00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>R$ 249,99</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-gamer-optico-sem-fio-g305-lightspeed-logitech?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>placa/de/video/rtx/3060</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -576,123 +600,151 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>R$ 2.011,02</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>R$ 497,62</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-optico-gamer-sem-fio-g-pro-lightspeed-logitech?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>placa/de/video/rtx/3060</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Menor preço via Amazon</t>
+          <t>Menor preço via KaBuM!</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>R$ 2.272,61</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>R$ 234,99</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-optico-gamer-usb-g403-logitech?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>placa/de/video/rtx/3060</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Menor preço via Casas Bahia</t>
+          <t>Menor preço via Amazon</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>R$ 3.652,84</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>R$ 459,99</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-optico-gamer-sem-fio-usb-g703-lightspeed-logitech?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>placa/de/video/rtx/3060</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Menor preço via Americanas</t>
+          <t>Menor preço via Magazine Luiza</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>R$ 3.699,90</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>R$ 241,99</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-optico-gamer-usb-g300s-logitech?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Menor preço via Amazon</t>
+          <t>Menor preço via KaBuM!</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>R$ 1.079,95</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>R$ 299,90</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-optico-gamer-usb-g502-hero-logitech?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Menor preço via Amazon</t>
+          <t>Menor preço via Extra</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>R$ 1.099,90</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>R$ 79,90</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-gamer-optico-usb-nothosaur-m606-redragon?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Menor preço via Amazon</t>
+          <t>Menor preço via KaBuM!</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>R$ 1.146,00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>R$ 299,99</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-laser-gamer-sem-fio-usb-g305-logitech?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -702,15 +754,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>R$ 1.148,89</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>R$ 325,00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-razer-basilisk-x-hyperspeed?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -720,141 +776,173 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>R$ 1.149,00</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>R$ 962,83</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-laser-profissional-sem-fio-mx-master-3-logitech?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Menor preço via Amazon</t>
+          <t>Menor preço via KaBuM!</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>R$ 1.150,00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>R$ 149,90</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-optico-gamer-usb-pulsefire-core-hyperx?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Menor preço via Amazon</t>
+          <t>Menor preço via KaBuM!</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>R$ 1.184,89</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>R$ 549,90</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-optico-gamer-sem-fio-usb-g903-logitech?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Menor preço via Mercado Livre</t>
+          <t>Menor preço via Extra</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>R$ 1.189,30</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>R$ 33,00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-gamer-usb-warrior-mo263-multilaser?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Menor preço via SuperDig</t>
+          <t>Menor preço via Magazine Luiza</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>R$ 1.219,00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>R$ 153,50</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-optico-gamer-m607-redragon?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Menor preço via Mercado Livre</t>
+          <t>Menor preço via Amazon</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>R$ 1.258,33</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>R$ 591,00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-optico-gamer-naga-trinity-razer?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Menor preço via Amazon</t>
+          <t>Menor preço via Americanas</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>R$ 1.359,00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>R$ 29,33</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-gamer-vx-gaming-black-widow-2400-dpi-ajustavel-e-06-b?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Menor preço via Amazon</t>
+          <t>Menor preço via Ponto</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>R$ 1.399,00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>R$ 726,75</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-gamer-sem-fio-pro-x-superlight-910-005879-logitech-g?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -864,15 +952,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>R$ 1.399,00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>R$ 466,00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-optico-gamer-deathadder-v2-razer?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -882,249 +974,305 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>R$ 1.599,00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>R$ 711,72</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/razer-viper-ultimate-mouse-sem-fio?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>mouse/gamer</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Menor preço via Amazon</t>
+          <t>Menor preço via KaBuM!</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>R$ 1.659,00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>R$ 109,99</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/mouse/mouse-gamer-optico-gamer-usb-invader-rgb-m719-redragon?_lc=88&amp;searchterm=mouse%2Fgamer</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>iphone/15</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Menor preço via Amazon</t>
+          <t>Menor preço via Mercado Livre</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>R$ 1.699,00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>R$ 4.810,00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/celular/smartphone-apple-iphone-15-128gb-camera-dupla?_lc=88&amp;searchterm=iphone%2F15</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>iphone/15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Menor preço via Casas Bahia</t>
+          <t>Menor preço via Puro Suco da Maça</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>R$ 1.765,30</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>R$ 7.380,00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/celular/smartphone-apple-iphone-15-pro-max-256gb-camera-tripla?_lc=88&amp;searchterm=iphone%2F15</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>iphone/15</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Menor preço via Amazon</t>
+          <t>Menor preço via KaBuM!</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>R$ 1.855,00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>R$ 6.999,00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/celular/smartphone-apple-iphone-15-pro-8gb-ram-128gb-camera-tripla?_lc=88&amp;searchterm=iphone%2F15</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>iphone/15</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Menor preço via Amazon</t>
+          <t>Menor preço via Mercado Livre</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>R$ 2.239,00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>R$ 6.920,00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/celular/smartphone-apple-iphone-15-pro-256gb-camera-tripla?_lc=88&amp;searchterm=iphone%2F15</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>iphone/15</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Menor preço via Free Cell</t>
+          <t>Menor preço via Mercado Livre</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>R$ 870,30</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>R$ 6.249,59</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/celular/smartphone-apple-iphone-15-plus-iphone-128gb-camera-dupla?_lc=88&amp;searchterm=iphone%2F15</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>iphone/15</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Menor preço via Mercado Livre</t>
+          <t>Menor preço via Fast Shop</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>R$ 899,00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>R$ 5.999,00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/celular/smartphone-apple-iphone-15-iphone-256gb-camera-dupla?_lc=88&amp;searchterm=iphone%2F15</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>iphone/15</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Menor preço via Mercado Livre</t>
+          <t>Menor preço via Girafa</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>R$ 913,00</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>R$ 9.698,00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/celular/smartphone-apple-iphone-15-pro-max-8gb-ram-512gb-camera-tripla?_lc=88&amp;searchterm=iphone%2F15</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>iphone/15</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Menor preço via SuperDig</t>
+          <t>Menor preço via KaBuM!</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>R$ 963,50</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>R$ 10.599,99</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/celular/smartphone-apple-iphone-15-pro-max-8gb-ram-1tb-camera-tripla?_lc=88&amp;searchterm=iphone%2F15</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>redmi/note/12/128gb</t>
+          <t>iphone/15</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Menor preço via Mercado Livre</t>
+          <t>Menor preço via KaBuM!</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>R$ 975,00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>R$ 6.699,99</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/celular/smartphone-apple-iphone-15-plus-iphone-256gb-camera-dupla?_lc=88&amp;searchterm=iphone%2F15</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>samsung/s23/256gb</t>
+          <t>iphone/15</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Menor preço via Ponto</t>
+          <t>Menor preço via Mercado Livre</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>R$ 2.832,20</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>R$ 9.346,00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/celular/smartphone-apple-iphone-15-pro-512gb-camera-tripla?_lc=88&amp;searchterm=iphone%2F15</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>samsung/s23/256gb</t>
+          <t>iphone/15</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Menor preço via Girafa</t>
+          <t>Menor preço via KaBuM!</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>R$ 3.148,00</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>R$ 7.299,00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/celular/smartphone-apple-iphone-15-plus-iphone-512gb-camera-dupla?_lc=88&amp;searchterm=iphone%2F15</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>samsung/s23/256gb</t>
+          <t>iphone/15</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Menor preço via Magazine Luiza</t>
+          <t>Menor preço via KaBuM!</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>R$ 4.049,10</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>R$ 9.999,00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/celular/smartphone-apple-iphone-15-pro-8-gb-ram-1tb-camera-tripla?_lc=88&amp;searchterm=iphone%2F15</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>samsung/s23/256gb</t>
+          <t>iphone/15</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1134,10 +1282,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>R$ 5.099,00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>R$ 7.599,99</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.buscape.com.br/celular/smartphone-apple-iphone-15-iphone-512gb-camera-dupla?_lc=88&amp;searchterm=iphone%2F15</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
